--- a/AGP-model-testing-scores.xlsx
+++ b/AGP-model-testing-scores.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Desktop/BOOTCAMP/GIT-HUB-REPOS/Covid-Vaccine-Hashtagged-Tweets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE5F0936-157B-2F4B-A5F9-45EA75CCBF53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA763EE4-3F26-7A4A-A811-52DF43AA9568}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20840" yWindow="-10260" windowWidth="16660" windowHeight="9960" xr2:uid="{B8F99F90-3E18-6C41-B0E4-46BEC5C4A88C}"/>
+    <workbookView xWindow="13560" yWindow="-21200" windowWidth="24200" windowHeight="18860" activeTab="1" xr2:uid="{B8F99F90-3E18-6C41-B0E4-46BEC5C4A88C}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
-    <sheet name="Synonyms" sheetId="2" r:id="rId2"/>
+    <sheet name="testWords" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="114">
   <si>
     <t>SEGMENT</t>
   </si>
@@ -97,21 +97,12 @@
     <t>yes - v2</t>
   </si>
   <si>
-    <t>need - alejandro?)</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>small - under 500 rows</t>
   </si>
   <si>
     <t>Classifier</t>
   </si>
   <si>
-    <t>Synonyms</t>
-  </si>
-  <si>
     <t>"AstraZeneca"</t>
   </si>
   <si>
@@ -158,13 +149,1366 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>spike</t>
+  </si>
+  <si>
+    <t>rush</t>
+  </si>
+  <si>
+    <t>hurry</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>[('magats', 0.6903834939002991),
+ ('fck', 0.6728980541229248),
+ ('sht', 0.6570347547531128),
+ ('fooled', 0.6538318991661072),
+ ('blanket', 0.6358485817909241),
+ ('antivaxer', 0.6227534413337708),
+ ('gullible', 0.6184362173080444),
+ ('believing', 0.6130959987640381),
+ ('tellin', 0.6096542477607727),
+ ('panicking', 0.6095008850097656),
+ ('convinced', 0.608847439289093),
+ ('dare', 0.6084033846855164),
+ ('deniers', 0.6071611642837524),
+ ('clowns', 0.6070066094398499),
+ ('guts', 0.606316089630127),
+ ('jar', 0.6053743958473206),
+ ('tryna', 0.6047737002372742),
+ ('loose', 0.6028400659561157),
+ ('odds', 0.6025580167770386),
+ ('daft', 0.6011477112770081)]</t>
+  </si>
+  <si>
+    <t>Global-200/03/20</t>
+  </si>
+  <si>
+    <t>[('mortality', 0.5720633268356323),
+ ('ll', 0.5408521890640259),
+ ('hospitalisations', 0.5279791355133057),
+ ('22012021', 0.5268954634666443),
+ ('fudged', 0.5215322971343994),
+ ('deaths', 0.5169661641120911),
+ ('329', 0.5045091509819031),
+ ('norway', 0.5016185641288757),
+ ('latent', 0.4981536865234375),
+ ('unrelated', 0.4975307583808899),
+ ('contracting', 0.4953504502773285),
+ ('statistics', 0.49214980006217957),
+ ('rises', 0.49028289318084717),
+ ('labeled', 0.489224910736084),
+ ('aarons', 0.4836593270301819),
+ ('hospitalizations', 0.4764789342880249),
+ ('occurring', 0.4762014150619507),
+ ('positivity', 0.4739222526550293),
+ ('hospitalisation', 0.47388383746147156),
+ ('501', 0.47251981496810913)]</t>
+  </si>
+  <si>
+    <t>Astra</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[('zeneca', 0.6575363278388977),
+ ('oxfordastra', 0.6263907551765442),
+ ('astrazenca', 0.5392093658447266),
+ ('oxford', 0.525539219379425),
+ ('astrazeneca', 0.5056969523429871),
+ ('universityastrazeneca', 0.5008196234703064),
+ ('oxfordastrazeneca', 0.49420982599258423),
+ ('formula', 0.47110751271247864),
+ ('zenica', 0.4701363146305084),
+ ('uni', 0.46191054582595825),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>('jealousy', 0.4587249159812927),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ('plc', 0.4480212330818176),
+ ('gamechanging', 0.4443196952342987),
+ ('oxfordvaccine', 0.4416346549987793),
+ ('astrazenecaoxford', 0.4408634603023529),
+ ('resumed', 0.43806570768356323),
+ ('azn', 0.42636293172836304),
+ ('pause', 0.42232397198677063),
+ ('described', 0.42219042778015137),
+ ('chadox1s', 0.418969064950943)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[('astrazenecavaccine', 0.61847984790802),
+ ('oxfordvaccine', 0.5980051755905151),
+ ('oxfordastrazeneca', 0.5958052277565002),
+ ('universityastrazeneca', 0.5814313292503357),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ('europeanunion', 0.5603106021881104),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ('oxford', 0.5485740900039673),
+ ('astrazenecaoxford', 0.54183030128479),
+ ('locks', 0.5304355621337891),
+ ('zeneca', 0.5192984938621521),
+ ('astrazenica', 0.5185846090316772),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ('over65s', 0.5175954103469849),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('placing', 0.5134967565536499),
+ ('azn', 0.5107796788215637),
+ ('novovax', 0.5074185132980347),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ('gamechanging', 0.5071829557418823)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('astra', 0.5056971311569214),
+ ('astrazenca', 0.5045223236083984),
+ ('backs', 0.4968774914741516),
+ ('az', 0.49139103293418884),
+ ('deliveries', 0.4876134991645813)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[('praying', 0.48407894372940063),
+ ('pray', 0.47821488976478577),
+ ('hoping', 0.4607488512992859),
+ ('honest', 0.45782145857810974),
+ ('brings', 0.4519340991973877),
+ ('ray', 0.44528302550315857),
+ ('wishing', 0.4371003210544586),
+ ('wish', 0.4340231120586395),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ('normalcy', 0.4337044358253479),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('hopefully', 0.4318784177303314),
+ ('sincerely', 0.41935133934020996),
+ ('brighter', 0.418803334236145),
+ (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>'woods', 0.41749849915504456),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('hopeful', 0.4154948890209198),
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>('glimmer', 0.4123819172382355),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('hahaha', 0.40659719705581665),
+ ('light', 0.4064389169216156),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ('healthier', 0.39039719104766846),
+ ('bleak', 0.38856759667396545),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ('feelings', 0.38402676582336426)]</t>
+    </r>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>shielding</t>
+  </si>
+  <si>
+    <t>VECTOR/ITERATIONS/Syn#</t>
+  </si>
+  <si>
+    <t>[('kn95', 0.7040905356407166),
+ ('solutionpremium', 0.6817731261253357),
+ ('filter', 0.6731166839599609),
+ ('premium', 0.6728689074516296),
+ ('masks', 0.6550624966621399),
+ ('woven', 0.6456225514411926),
+ ('filters', 0.6281559467315674),
+ ('face', 0.6092294454574585),
+ ('tortilli', 0.5928439497947693),
+ ('cloth', 0.5563942193984985),
+ ('soci', 0.538789689540863),
+ ('static', 0.5348225831985474),
+ ('reusable', 0.5311886072158813),
+ ('socially', 0.5205217003822327),
+ ('sanitizers', 0.5166170597076416),
+ ('fabric', 0.5144306421279907),
+ ('respirar', 0.5105113983154297),
+ ('n95', 0.5104237794876099),
+ ('mas', 0.507165253162384),
+ ('gloves', 0.4965737760066986)]</t>
+  </si>
+  <si>
+    <t>mum</t>
+  </si>
+  <si>
+    <t>mom</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[('cev', 0.6299256086349487),
+ ('isolating', 0.6126480102539062),
+ ('asthmatic', 0.5700178146362305),
+ ('vunerable', 0.5486565828323364),
+ ('diabetic', 0.5304638743400574),
+ ('copd', 0.5303198099136353),
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>('neighbour', 0.5289403796195984),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('gt70', 0.5257062315940857),
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>('texted', 0.5221978425979614),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('olds', 0.5221286416053772),
+ ('realized', 0.5207602977752686),
+ ('classed', 0.5147448182106018),
+ ('77', 0.5034074783325195),
+ ('93', 0.4999942481517792),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ('mum', 0.49875569343566895),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('yearold', 0.49749183654785156),
+ ('clinically', 0.49481040239334106),
+ ('87', 0.49247974157333374),
+ ('phoned', 0.4891957938671112),
+ ('78', 0.4878605306148529)]</t>
+    </r>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>[('socially', 0.7467753887176514), ('masks', 0.746028482913971), ('distance', 0.7269527316093445), ('crowds', 0.7094660997390747), ('gloves', 0.7055652737617493), ('wash', 0.6833218932151794), ('washing', 0.6764542460441589), ('soc', 0.6572563052177429), ('distanced', 0.6531539559364319), ('soci', 0.6442371606826782), ('inclement', 0.6384971737861633), ('masking', 0.636468231678009), ('wearing', 0.6348330974578857), ('sanitize', 0.6296590566635132), ('cloth', 0.6245822906494141), ('distancing', 0.6203715801239014), ('wear', 0.617688775062561), ('10feet', 0.6104966998100281), ('norms', 0.6104363799095154), ('n95', 0.5992653369903564)]</t>
+  </si>
+  <si>
+    <t>[('socially', 0.8208937048912048), ('distance', 0.7250239253044128), ('soc', 0.7110874652862549), ('abide', 0.6948100328445435), ('wash', 0.6941904425621033), ('washing', 0.678631603717804), ('outdoors', 0.6771127581596375), ('vampire', 0.6738955974578857), ('mask', 0.6531539559364319), ('crowds', 0.6484965682029724), ('gloves', 0.6428754329681396), ('sanitize', 0.6376904845237732), ('sanitise', 0.6325274705886841), ('physically', 0.6205849051475525), ('practicing', 0.6192002296447754), ('physical', 0.6125912070274353), ('n95', 0.6108160614967346), ('soci', 0.6097222566604614), ('pra', 0.6093671321868896), ('masking', 0.6066974401473999)]</t>
+  </si>
+  <si>
+    <t>distanced</t>
+  </si>
+  <si>
+    <t>n95</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[('respirar', 0.7560295462608337),
+ ('cloth', 0.7161058783531189),
+ ('reusable', 0.7013095021247864),
+ ('gloves', 0.694839358329773),
+ ('surgical', 0.6889155507087708),
+ ('kn95', 0.675942063331604),
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>('vampire', 0.6654337048530579),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('sanitizers', 0.6621900200843811),
+ ('socially', 0.654574453830719),
+ ('masks', 0.6499530076980591),
+ ('wearing', 0.6488544344902039),
+ ('abide', 0.6487817168235779),
+ ('soci', 0.6465170383453369),
+ ('solutionpremium', 0.6435543298721313),
+ ('washing', 0.6317629814147949),
+ ('premium', 0.6287161111831665),
+ ('quarantining', 0.6245430707931519),
+ ('worn', 0.6173912882804871),
+ ('forgetting', 0.6132636666297913),
+ ('distanced', 0.6108160018920898)]</t>
+    </r>
+  </si>
+  <si>
+    <t>quarentine</t>
+  </si>
+  <si>
+    <t>quarentining</t>
+  </si>
+  <si>
+    <t>[('socialdistancing', 0.45204541087150574),
+ ('ppe', 0.4478965401649475),
+ ('ditch', 0.43429073691368103),
+ ('physically', 0.4127954840660095),
+ ('leave', 0.4124622941017151),
+ ('gettested', 0.4123063087463379),
+ ('lockdown3', 0.41161131858825684),
+ ('cancelstudentdebt', 0.4101421535015106),
+ ('prematurely', 0.4097937345504761),
+ ('restrictions', 0.4097273051738739),
+ ('homeschool', 0.40811529755592346),
+ ('ravages', 0.40774989128112793),
+ ('hanging', 0.4074961543083191),
+ ('surges', 0.40592288970947266),
+ ('isolate', 0.4044463634490967),
+ ('lockdown2', 0.4035933017730713),
+ ('responsibly', 0.40344133973121643),
+ ('wea', 0.40216878056526184),
+ ('hotel', 0.40165722370147705),
+ ('wearamask', 0.40063366293907166)]</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>[('staying', 0.5945369005203247),
+ ('vigilant', 0.5477533340454102),
+ ('wea', 0.544231116771698),
+ ('soc', 0.5272113680839539),
+ ('keep', 0.5179023742675781),
+ ('masked', 0.5049114227294922),
+ ('tuned', 0.5017505288124084),
+ ('10feet', 0.49047017097473145),
+ ('masking', 0.46257394552230835),
+ ('expectingmoms', 0.4508092403411865),
+ ('indoors', 0.4502418041229248),
+ ('cour', 0.4471336007118225),
+ ('distanced', 0.44664904475212097),
+ ('socially', 0.4445846378803253),
+ ('noone', 0.4415268003940582),
+ ('crowds', 0.4297853112220764),
+ ('doublemask', 0.4232466518878937),
+ ('distance', 0.4224603474140167),
+ ('mask', 0.42060577869415283),
+ ('wash', 0.4173809587955475)]</t>
+  </si>
+  <si>
+    <t>antibodies</t>
+  </si>
+  <si>
+    <t>contagious</t>
+  </si>
+  <si>
+    <t>respirator</t>
+  </si>
+  <si>
+    <t>ventilator</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>pandemic</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>flattenthecurve</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[('slowspread', 0.7347344160079956),
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>('wearamasksavealife',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.7090662121772766),
+ ('defundthebbc', 0.6916840076446533),
+ ('doyourpart', 0.6817543506622314),
+ ('covid19tx', 0.6789141297340393),
+ ('savelives', 0.6766011714935303),
+ ('covidshot', 0.6747007966041565),
+ ('wearyourmask', 0.669437050819397),
+ ('covidsucks', 0.6683679223060608),
+ ('socialdistance', 0.6654244065284729),
+ ('staysafe', 0.6641978025436401),
+ ('covidvaccine2021', 0.6591846346855164),
+ ('besafe', 0.6583008170127869),
+ ('round1', 0.6569790840148926),
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>('getjab', 0.6548195481300354),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('docsforvax', 0.6485030651092529),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ('covidchristmas', 0.6470208168029785),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>('nurselife', 0.6432361602783203),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ('ibelieveinscience', 0.6411495208740234),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ('trudeaumustgo', 0.6352615356445312)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[('internationalstudents', 0.6220344305038452),
+ ('liftthetravelban', 0.5906487703323364),
+ ('letuscometoaus', 0.5389572978019714),
+ ('garings', 0.4773872196674347),
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>('loneliness', 0.4645102322101593),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('gradually', 0.461723655462265),
+ ('borders', 0.43758219480514526),
+ ('1955', 0.43559956550598145),
+ ('fruits', 0.4212218225002289),
+ ('mug', 0.4203200340270996),
+ ('masked', 0.41933149099349976),
+ ('season', 0.41571009159088135),
+ ('kits', 0.415494829416275),
+ ('gods', 0.4133695960044861),
+ ('shops', 0.41260966658592224),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ('licking', 0.412504643201828),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('revealing', 0.41136232018470764),
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>('balls', 0.4073358476161957),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('ad', 0.407022088766098),
+ ('til', 0.40602585673332214)]</t>
+    </r>
+  </si>
+  <si>
+    <t>[('dad', 0.7712597250938416),
+ ('mam', 0.6926631927490234),
+ ('nan', 0.6896292567253113),
+ ('grad', 0.6867572069168091),
+ ('stepmom', 0.6642289757728577),
+ ('grma', 0.6594688892364502),
+ ('mom', 0.6542695164680481),
+ ('morinlaw', 0.653915524482727),
+ ('yearold', 0.6370455622673035),
+ ('farinlaw', 0.6369085907936096),
+ ('grmor', 0.6363085508346558),
+ ('80yearold', 0.6243096590042114),
+ ('grfar', 0.6083129048347473),
+ ('aunt', 0.5997506380081177),
+ ('nephew', 0.5990278720855713),
+ ('shes', 0.5924544334411621),
+ ('gran', 0.5902805924415588),
+ ('87', 0.5803633332252502),
+ ('uncle', 0.5763524770736694),
+ ('braved', 0.5750527381896973)]</t>
+  </si>
+  <si>
+    <t>[('dad', 0.7815741300582886),
+ ('grma', 0.7460029721260071),
+ ('mor', 0.7078761458396912),
+ ('grmor', 0.7074331641197205),
+ ('yearold', 0.6922858953475952),
+ ('husb', 0.6867672801017761),
+ ('morinlaw', 0.685141921043396),
+ ('aunt', 0.6842389106750488),
+ ('farinlaw', 0.6768633723258972),
+ ('stepmom', 0.6751620173454285),
+ ('grpa', 0.6727896332740784),
+ ('mam', 0.6689709424972534),
+ ('nephew', 0.6666660904884338),
+ ('bror', 0.6602463126182556),
+ ('mama', 0.6565197706222534),
+ ('mum', 0.6542690992355347),
+ ('grad', 0.653374195098877),
+ ('hubby', 0.6447387337684631),
+ ('stepdad', 0.6389744281768799),
+ ('87', 0.6380370855331421)]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[('homes', 0.6426000595092773),
+ ('waterford', 0.6298454403877258),
+ ('pio', 0.598727285861969),
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">('whistleblower', 0.5879469513893127),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ('residential', 0.5849047303199768),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ('nursing', 0.5783171653747559),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ('wexford', 0.57438063621521),
+ ('tipperary', 0.5553792119026184),
+ ('wea', 0.5500738620758057),
+ ('lodge', 0.5452662110328674),
+ ('cna', 0.5362290143966675),
+ ('eyesight', 0.5323067903518677),
+ ('78yearold', 0.5260259509086609),
+ ('grove', 0.524734377861023),
+ ('forcibly', 0.5237684845924377),
+ ('cour', 0.5221712589263916),
+ ('assistedliving', 0.5198373198509216),
+ ('surbin', 0.5134784579277039),
+ ('retirement', 0.5122241973876953),
+ ('visiting', 0.5101549029350281)]</t>
+    </r>
+  </si>
+  <si>
+    <t>hug</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>('someday', 0.6010574698448181),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('lif', 0.591866672039032),
+ ('hugs', 0.5895078778266907),
+ ('grchildren', 0.5780982375144958),
+ ('hugging', 0.5624663829803467),
+ ('enjoy', 0.5559523701667786),
+ ('leftists', 0.5530072450637817),
+ ('grkids', 0.5487104654312134),
+ ('concerts', 0.5467870831489563),
+ ('soonest', 0.5369349122047424),
+ ('traveling', 0.5358763933181763),
+ ('doin', 0.5286902189254761),
+ ('smiling', 0.5272275805473328),
+ ('cry', 0.5262624621391296),
+ ('arou', 0.5250923037528992),
+ ('bac', 0.5222962498664856),
+ ('embarrassed', 0.5200745463371277),
+ ('kiddos', 0.5162276029586792),
+ ('daft', 0.513466477394104),
+ ('lengths', 0.5127963423728943)]</t>
+    </r>
+  </si>
+  <si>
+    <t>[('bidens', 0.7006909847259521),
+ ('trump', 0.6420896053314209),
+ ('joebiden', 0.5974248647689819),
+ ('foreigninterference', 0.5948759913444519),
+ ('joe', 0.5946545600891113),
+ ('presidentbiden', 0.5727376341819763),
+ ('presidentelect', 0.5714408159255981),
+ ('2020election', 0.5710986256599426),
+ ('bidenharris', 0.5546340942382812),
+ ('impeachmenttrial', 0.5483373999595642),
+ ('trumpisnotwell', 0.5479560494422913),
+ ('donald', 0.5451164245605469),
+ ('blames', 0.5417205691337585),
+ ('congress', 0.5380587577819824),
+ ('riots', 0.5241497159004211),
+ ('climateactionnow', 0.5236029624938965),
+ ('administrations', 0.5222621560096741),
+ ('administration', 0.5164087414741516),
+ ('elect', 0.5109293460845947),
+ ('climatejustice', 0.5106441378593445)]</t>
+  </si>
+  <si>
+    <t>[('2020election', 0.6512714624404907),
+ ('impeached', 0.6423133015632629),
+ ('biden', 0.6420896649360657),
+ ('foreigninterference', 0.6410984992980957),
+ ('joebiden', 0.6390156149864197),
+ ('cronies', 0.6331535577774048),
+ ('impeachmenttrial', 0.6328849196434021),
+ ('trumpisnotwell', 0.6241152882575989),
+ ('riots', 0.6178431510925293),
+ ('impeachment', 0.6176342964172363),
+ ('climatejustice', 0.6140878200531006),
+ ('climateactionnow', 0.599368691444397),
+ ('insurrection', 0.5991125702857971),
+ ('congress', 0.5930718183517456),
+ ('vowed', 0.5902429819107056),
+ ('donald', 0.5851433873176575),
+ ('kushner', 0.5849825143814087),
+ ('firedsuspended', 0.5762454271316528),
+ ('trumps', 0.567421019077301),
+ ('potus', 0.561507523059845)]</t>
+  </si>
+  <si>
+    <t>[('relieved', 0.6855376362800598),
+ ('blessed', 0.6185245513916016),
+ ('happier', 0.5985537767410278),
+ ('excited', 0.5978328585624695),
+ ('thrilled', 0.5965237021446228),
+ ('glad', 0.5779703259468079),
+ ('cried', 0.5769020915031433),
+ ('eldest', 0.5663037300109863),
+ ('joyful', 0.5633741617202759),
+ ('hahaha', 0.5600442886352539),
+ ('unbelievably', 0.5534654259681702),
+ ('cry', 0.5516640543937683),
+ ('essentialworker', 0.5501003861427307),
+ ('understatement', 0.5500127673149109),
+ ('moon', 0.5456693172454834),
+ ('sked', 0.5451748967170715),
+ ('braved', 0.5406241416931152),
+ ('delighted', 0.5401715040206909),
+ ('birthday', 0.538402795791626),
+ ('mama', 0.5344616174697876)]</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[('1st', 0.7507513761520386), ('second', 0.6716471910476685), ('2nd', 0.6314022541046143), ('80yearold', 0.531063437461853), ('fist', 0.5233501195907593), ('northants', 0.5035443305969238), ('stepdad', 0.49494460225105286), ('csun', 0.4902000427246094), ('seco', </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.4658060669898987), ('huzzah', 0.46093741059303284), ('woohoo',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.45492199063301086), ('recieved', 0.44656795263290405), ('vacinne', 0.44502630829811096), ('momma',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.4405619204044342), ('stepmom', 0.43882662057876587), ('nanny', 0.43722814321517944), ('10000th', 0.42343664169311523), ('whew', 0.422429621219635), ('granny', 0.41096383333206177), ('mama', 0.40732279419898987)]</t>
+    </r>
+  </si>
+  <si>
+    <t>[('protein', 0.6791588664054871),
+ ('subunit', 0.6139847040176392),
+ ('proteins', 0.5885641574859619),
+ ('uniq', 0.5799208879470825),
+ ('neutralizing', 0.5723896026611328),
+ ('igg', 0.5460563898086548),
+ ('microbiome', 0.5249022245407104),
+ ('reduction', 0.5109525322914124),
+ ('artificially', 0.507660448551178),
+ ('nanotechnology', 0.504165768623352),
+ ('rapeutic', 0.5021459460258484),
+ ('decrease', 0.5014039278030396),
+ ('naturally', 0.5009614825248718),
+ ('temp', 0.49964961409568787),
+ ('997', 0.49807825684547424),
+ ('stimulates', 0.4978283941745758),
+ ('harmless', 0.4914293587207794),
+ ('sarscov2', 0.49112483859062195),
+ ('abi', 0.48999759554862976),
+ ('shark', 0.48997968435287476)]</t>
+  </si>
+  <si>
+    <t>jab</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[('dose', 0.7059698700904846),
+ ('hubby', 0.5624926090240479),
+ ('round', 0.5455313920974731),
+ ('jag', 0.5448223948478699),
+ ('knocked', 0.5394657850265503),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ('woohoo', 0.5388463735580444),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('jab', 0.5327863693237305),
+ ('momma', 0.524488627910614),
+ ('dosage', 0.5187469124794006),
+ ('vacinne', 0.5177303552627563),
+ ('dreading', 0.5010707378387451),
+ ('poked', 0.4954816401004791),
+ ('24hrs', 0.49462857842445374),
+ ('yay', 0.49148276448249817),
+ ('doze', 0.4912373125553131),
+ ('fauciouchie', 0.48968929052352905),
+ ('diarrhea', 0.48841211199760437),
+ ('dosis', 0.4868297278881073),
+ ('wahoo', 0.48490187525749207),
+ ('daddy', 0.4838724732398987)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[('shot', 0.5327861905097961), ('jag', 0.5039548873901367), ('jabs', 0.4620145559310913), ('hubby', 0.4590693414211273), ('mum', 0.4298873543739319), ('dose', 0.4268188178539276), ('mums', 0.4030027389526367), ('jabbed', </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.38753658533096313), ('huzzah',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.3829612135887146), ('mine', 0.37330079078674316), ('oddly', 0.3710896968841553), ('nana', 0.3693915903568268), ('zenica', 0.3626510202884674), ('vacinne', 0.3615802228450775), ('jamming', 0.3576168119907379), ('hooray', 0.35673460364341736), ('seco', 0.3529285788536072), ('dusted', 0.352405309677124), ('poked', 0.35109004378318787), ('responder', 0.34994882345199585)]</t>
+    </r>
+  </si>
+  <si>
+    <t>[('dare', 0.6065734624862671),
+ ('trumpvaccine', 0.5757858157157898),
+ ('acted', 0.569060206413269),
+ ('viagra', 0.5606328845024109),
+ ('ivanka', 0.5303474068641663),
+ ('arrogance', 0.5290971398353577),
+ ('fooled', 0.5250483155250549),
+ ('trap', 0.5175540447235107),
+ ('masses', 0.5173471570014954),
+ ('invent', 0.5170292258262634),
+ ('conclusions', 0.5135522484779358),
+ ('bleed', 0.5125358700752258),
+ ('presidentialdebate2020', 0.5112741589546204),
+ ('shove', 0.5062431693077087),
+ ('corrupted', 0.5060486793518066),
+ ('witch', 0.5050557851791382),
+ ('disguise', 0.504732072353363),
+ ('ego', 0.5039336681365967),
+ ('undermined', 0.5030483603477478),
+ ('pretend', 0.5025810599327087)]</t>
+  </si>
+  <si>
+    <r>
+      <t>[(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>'bookyourshot', 0.4923831820487976),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('tfw', 0.4836626648902893),
+ ('hungergames', 0.4696480631828308),
+ ('fix', 0.44304654002189636),
+ ('magically', 0.42876988649368286),
+ ('availa', 0.4262699484825134),
+ ('signing', 0.42538580298423767),
+ ('earliest', 0.42490965127944946),
+ ('211', 0.4209809899330139),
+ ('concerts', 0.42007774114608765),
+ ('ahem', 0.41489869356155396),
+ ('greenlight', 0.4131457805633545),
+ ('select', 0.41144219040870667),
+ ('ava', 0.4108090102672577),
+ ('phase1b', 0.40871310234069824),
+ ('costco', 0.40512481331825256),
+ ('bumped', 0.40414193272590637),
+ ('impossible', 0.40251287817955017),
+ ('21000', 0.4015546441078186),
+ ('unti', 0.3997686207294464)]</t>
+    </r>
+  </si>
+  <si>
+    <t>mutation</t>
+  </si>
+  <si>
+    <t>[('variant', 0.7411923408508301),
+ ('transmissible', 0.7345144748687744),
+ ('mutations', 0.7271608114242554),
+ ('ukvariant', 0.7253097891807556),
+ ('strain', 0.7236189842224121),
+ ('variants', 0.7221586108207703),
+ ('e484k', 0.7104678750038147),
+ ('d614g', 0.6883235573768616),
+ ('b1351', 0.6860188245773315),
+ ('southafrican', 0.6856667399406433),
+ ('contagious', 0.680748462677002),
+ ('strains', 0.6793054938316345),
+ ('b117', 0.6703827977180481),
+ ('mutant', 0.6636459827423096),
+ ('constrained', 0.6629143357276917),
+ ('detected', 0.6582943797111511),
+ ('alamedacounty', 0.6570686101913452),
+ ('p1', 0.6567844748497009),
+ ('emergence', 0.6492609977722168),
+ ('mutated', 0.6477105617523193)]</t>
+  </si>
+  <si>
+    <t>[('variant', 0.8404030203819275),
+ ('detected', 0.8027419447898865),
+ ('strains', 0.7899791598320007),
+ ('mutant', 0.765801727771759),
+ ('d614g', 0.7434603571891785),
+ ('transmissible', 0.7379672527313232),
+ ('mutated', 0.7326167821884155),
+ ('mutation', 0.723618745803833),
+ ('contagious', 0.700967013835907),
+ ('dominant', 0.697886049747467),
+ ('501yv2', 0.6869609355926514),
+ ('vari', 0.6868001818656921),
+ ('constrained', 0.686699628829956),
+ ('variants', 0.6816362142562866),
+ ('mutations', 0.681359589099884),
+ ('b1351', 0.6765758991241455),
+ ('e484k', 0.6733172535896301),
+ ('discovered', 0.6712623238563538),
+ ('southafrican', 0.6641016006469727),
+ ('alamedacounty', 0.651810348033905)]</t>
+  </si>
+  <si>
+    <t>[('pfizerbiontech', 0.6489373445510864),
+ ('comirnaty', 0.640679121017456),
+ ('moderns', 0.6275323629379272),
+ ('pfizervaccine', 0.6082252860069275),
+ ('pfizercovidvaccine', 0.5976803302764893),
+ ('pfizer', 0.5945103168487549),
+ ('modernavaccine', 0.5426063537597656),
+ ('thankyouscience', 0.5216924548149109),
+ ('wahoo', 0.5199110507965088),
+ ('secondvaccine', 0.5178260207176208),
+ ('post2nd', 0.5178105235099792),
+ ('knocked', 0.5109346508979797),
+ ('notthrowingawaymyshot', 0.5094467401504517),
+ ('peoplefirst', 0.509300708770752),
+ ('501pharmacy', 0.5092561841011047),
+ ('seconddose', 0.4886222779750824),
+ ('covidvac', 0.48837968707084656),
+ ('dosage', 0.4880770146846771),
+ ('stickittocovid', 0.48708173632621765),
+ ('bnt162b2', 0.4867984652519226)]</t>
+  </si>
+  <si>
+    <t>[('pfizerbiontech', 0.6822224259376526),
+ ('moderna', 0.5945103764533997),
+ ('comirnaty', 0.580008327960968),
+ ('novovax', 0.57863849401474),
+ ('moderns', 0.5525281429290771),
+ ('bnt162b2', 0.5395621061325073),
+ ('secondvaccine', 0.5277420282363892),
+ ('delaying', 0.5067920684814453),
+ ('pfizervaccine', 0.49919337034225464),
+ ('azoxford', 0.4951551854610443),
+ ('pfizercovidvaccine', 0.48745837807655334),
+ ('2d', 0.4792177379131317),
+ ('biontech', 0.47903570532798767),
+ ('dosage', 0.46859055757522583),
+ ('astrazenecavaccine', 0.4656163156032562),
+ ('modernavaccine', 0.46342456340789795),
+ ('effica', 0.46088841557502747),
+ ('pfizerproud', 0.45961350202560425),
+ ('interval', 0.45903459191322327),
+ ('10000th', 0.45285728573799133)]</t>
+  </si>
+  <si>
+    <t>[('johnsons', 0.8275214433670044), ('singleshot', 0.7316053509712219), ('singledose', 0.6994375586509705), ('oneshot', 0.6962037682533264), ('1shot', 0.6947324872016907), ('onedose', 0.6784412264823914), ('boris', 0.574774980545044), ('authorizes', 0.5628178119659424), ('pauses', 0.5596138834953308), ('jampjs', 0.5523623824119568), ('lilly', 0.5496324300765991), ('1dose', 0.5474510788917542), ('endorses', 0.5441589951515198), ('jampj', 0.542259931564331), ('janssen', 0.5247665047645569), ('ralph', 0.5047606229782104), ('farage', 0.5045528411865234), ('plots', 0.5038822889328003), ('submits', 0.49772223830223083), ('stanley', 0.48836803436279297)]</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>group id</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>[('sked', 0.6217404007911682),
+ ('thrilled', 0.6206989884376526),
+ ('happier', 0.6015093326568604),
+ ('happy', 0.5978330969810486),
+ ('elated', 0.5917134284973145),
+ ('relieved', 0.5890690684318542),
+ ('thankful', 0.581293523311615),
+ ('grateful', 0.578697681427002),
+ ('blessed', 0.5672309994697571),
+ ('nervous', 0.5509598255157471),
+ ('glad', 0.542763352394104),
+ ('moon', 0.5236383676528931),
+ ('stabbed', 0.50965416431427),
+ ('honored', 0.5084030628204346),
+ ('pumped', 0.5077894926071167),
+ ('delighted', 0.5061718225479126),
+ ('jelly', 0.5011041164398193),
+ ('privileged', 0.49657824635505676),
+ ('humbled', 0.4959369897842407),
+ ('fortunate', 0.49209165573120117)]</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negitive</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>lockdown</t>
+  </si>
+  <si>
+    <t>Global-POS</t>
+  </si>
+  <si>
+    <t>Global-NEG</t>
+  </si>
+  <si>
+    <t>fake</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +1518,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -192,8 +1543,57 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,27 +1608,40 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -239,19 +1652,6 @@
         <color theme="4"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -269,24 +1669,109 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -357,21 +1842,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C000D0F-C33D-7543-B24C-B60994CA51DB}" name="Table1" displayName="Table1" ref="A4:J15" totalsRowShown="0">
-  <autoFilter ref="A4:J15" xr:uid="{C62DF4F0-F2DF-2743-BDBC-6034C5BCDC01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C000D0F-C33D-7543-B24C-B60994CA51DB}" name="Table1" displayName="Table1" ref="A4:J29" totalsRowShown="0">
+  <autoFilter ref="A4:J29" xr:uid="{C62DF4F0-F2DF-2743-BDBC-6034C5BCDC01}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J23">
+    <sortCondition ref="J4:J23"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{2B4C885E-72A4-0848-9353-42A395F11CF3}" name="Classifier"/>
     <tableColumn id="2" xr3:uid="{E8BB2751-FE96-DA4A-8595-879759F8565D}" name="SEGMENT"/>
     <tableColumn id="3" xr3:uid="{F18F21AB-7081-DF4F-9F54-471F32E66655}" name="DATA"/>
-    <tableColumn id="4" xr3:uid="{4C43BADA-D42E-8C4A-BE12-D1E1F6252517}" name="Synonym" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{C78E9FDB-163E-C148-99DA-DAA35D1B68E8}" name="Clusters" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{B80318E6-6D8C-0F4B-B570-24057F6B43D9}" name="Word Math" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{7E89AAA4-6551-A848-9AA5-1FFAD093CC5D}" name="Vector Size" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{4DDA75F1-4C24-8B4F-8D5A-86947A598D98}" name="Interations" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{EE596B20-A6A1-E543-9F10-10DB777073CF}" name="K" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{543EA143-457B-1744-9035-CD50F7B3CC1D}" name="CoSine" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{4C43BADA-D42E-8C4A-BE12-D1E1F6252517}" name="Synonym" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{C78E9FDB-163E-C148-99DA-DAA35D1B68E8}" name="Clusters" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{B80318E6-6D8C-0F4B-B570-24057F6B43D9}" name="Word Math" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{7E89AAA4-6551-A848-9AA5-1FFAD093CC5D}" name="Vector Size" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{4DDA75F1-4C24-8B4F-8D5A-86947A598D98}" name="Interations" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{EE596B20-A6A1-E543-9F10-10DB777073CF}" name="K" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{543EA143-457B-1744-9035-CD50F7B3CC1D}" name="CoSine" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C057E0A7-5E91-914C-86E7-FFA9E53551E5}" name="Table2" displayName="Table2" ref="A3:N50" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A3:N50" xr:uid="{26E3B999-ED4C-A543-917C-BD15A6BD357A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N50">
+    <sortCondition ref="B3:B50"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="12" xr3:uid="{DF716BDD-0A77-5D41-8099-D171C464C4C2}" name="group id" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B376C3D7-8574-F245-B446-5495696E500C}" name="keyword" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3A452ED8-DDDA-D64B-B2FA-C589E878BE70}" name="Global-200/03/20"/>
+    <tableColumn id="14" xr3:uid="{685B12BA-2573-8F47-9281-B1C782B6561E}" name="Global-POS"/>
+    <tableColumn id="13" xr3:uid="{0F48A971-D35A-F24F-825C-9A749EEFE6FB}" name="Global-NEG"/>
+    <tableColumn id="3" xr3:uid="{49154867-2BE5-604D-9EA7-3A98AA18045A}" name="US"/>
+    <tableColumn id="4" xr3:uid="{EE473E8B-3EF0-4E43-A0E4-F686B523C2AB}" name="UK"/>
+    <tableColumn id="5" xr3:uid="{0BD98204-E682-D448-9F96-9828AAF345FB}" name="India"/>
+    <tableColumn id="6" xr3:uid="{71B12296-185F-AC47-BD89-61D10C445AEF}" name="Nov 5 (11/3-11/7)"/>
+    <tableColumn id="7" xr3:uid="{4BBB00D6-780D-C94A-8392-95BC2EAB2F32}" name="Jan 6 (1/4 - 1/8)"/>
+    <tableColumn id="8" xr3:uid="{2EA52044-351B-AE46-851D-3073E583F312}" name="AstraZeneca"/>
+    <tableColumn id="9" xr3:uid="{9FE2E1AA-C4EA-AA4C-A8E3-065480E3D7EF}" name="Moderna"/>
+    <tableColumn id="10" xr3:uid="{881DB5C6-6C99-3E46-9C37-4A68CA9E11B1}" name="Pfizer"/>
+    <tableColumn id="11" xr3:uid="{9823D0A3-B40D-5B4B-8176-2DE4AA95D2E6}" name="Johnson&amp;Johnson "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -672,10 +2186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C46A07-7686-4B44-937F-17DEBC2EBD14}">
-  <dimension ref="A4:J15"/>
+  <dimension ref="A4:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,7 +2203,7 @@
   <sheetData>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -707,21 +2221,21 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -729,209 +2243,600 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15">
+        <v>300</v>
+      </c>
+      <c r="H5" s="15">
+        <v>3</v>
+      </c>
+      <c r="I5" s="15">
+        <v>7</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.22189984396204601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17">
         <v>200</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
-        <v>300</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>7</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0.22189984396204601</v>
+      <c r="H6" s="17">
+        <v>3</v>
+      </c>
+      <c r="I6" s="17">
+        <v>15</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.22453600000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15">
+        <v>300</v>
+      </c>
+      <c r="H7" s="15">
+        <v>3</v>
+      </c>
+      <c r="I7" s="15">
+        <v>6</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.2437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17">
+        <v>200</v>
+      </c>
+      <c r="H8" s="17">
+        <v>3</v>
+      </c>
+      <c r="I8" s="17">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="17">
+        <v>0.26939999999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15">
+        <v>300</v>
+      </c>
+      <c r="H9" s="15">
+        <v>3</v>
+      </c>
+      <c r="I9" s="15">
+        <v>6</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0.2828</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
+        <v>300</v>
+      </c>
+      <c r="H10" s="15">
+        <v>3</v>
+      </c>
+      <c r="I10" s="15">
+        <v>8</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0.2838</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15">
+        <v>200</v>
+      </c>
+      <c r="H11" s="15">
+        <v>3</v>
+      </c>
+      <c r="I11" s="15">
+        <v>8</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0.28420000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17">
+        <v>300</v>
+      </c>
+      <c r="H12" s="17">
+        <v>3</v>
+      </c>
+      <c r="I12" s="17">
+        <v>7</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0.28560000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17">
+        <v>200</v>
+      </c>
+      <c r="H13" s="17">
+        <v>3</v>
+      </c>
+      <c r="I13" s="17">
+        <v>8</v>
+      </c>
+      <c r="J13" s="17">
+        <v>0.29530000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
+        <v>200</v>
+      </c>
+      <c r="H14" s="17">
+        <v>3</v>
+      </c>
+      <c r="I14" s="17">
+        <v>6</v>
+      </c>
+      <c r="J14" s="17">
+        <v>0.3039</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15">
+        <v>300</v>
+      </c>
+      <c r="H15" s="15">
+        <v>3</v>
+      </c>
+      <c r="I15" s="15">
+        <v>10</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17">
+        <v>200</v>
+      </c>
+      <c r="H16" s="17">
+        <v>3</v>
+      </c>
+      <c r="I16" s="17">
+        <v>12</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0.31519999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15">
+        <v>300</v>
+      </c>
+      <c r="H17" s="15">
+        <v>3</v>
+      </c>
+      <c r="I17" s="15">
+        <v>6</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17">
+        <v>200</v>
+      </c>
+      <c r="H18" s="17">
+        <v>3</v>
+      </c>
+      <c r="I18" s="17">
+        <v>5</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0.50560000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17">
+        <v>200</v>
+      </c>
+      <c r="H19" s="17">
+        <v>3</v>
+      </c>
+      <c r="I19" s="17">
+        <v>7</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0.27110000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17">
+        <v>200</v>
+      </c>
+      <c r="H20" s="17">
+        <v>3</v>
+      </c>
+      <c r="I20" s="17">
+        <v>12</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0.24940000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15">
+        <v>200</v>
+      </c>
+      <c r="H21" s="15">
+        <v>3</v>
+      </c>
+      <c r="I21" s="15">
+        <v>15</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17">
+        <v>200</v>
+      </c>
+      <c r="H22" s="17">
+        <v>3</v>
+      </c>
+      <c r="I22" s="17">
+        <v>6</v>
+      </c>
+      <c r="J22" s="17">
+        <v>0.22759299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17">
+        <v>200</v>
+      </c>
+      <c r="H23" s="17">
+        <v>3</v>
+      </c>
+      <c r="I23" s="17">
+        <v>7</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0.24835499999999999</v>
+      </c>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18">
+        <v>300</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18">
+        <v>300</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17">
+        <v>300</v>
+      </c>
+      <c r="H26" s="17">
+        <v>3</v>
+      </c>
+      <c r="I26" s="17">
+        <v>13</v>
+      </c>
+      <c r="J26" s="17">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18">
+        <v>300</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18">
+        <v>300</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -940,175 +2845,485 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8714BA-8B4A-0E49-AEB5-02E5D6954EDA}">
-  <dimension ref="A2:N16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CF2B4D-CE0C-4848-94A2-84D4D776F252}">
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
+      <c r="C33" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/AGP-model-testing-scores.xlsx
+++ b/AGP-model-testing-scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Desktop/BOOTCAMP/GIT-HUB-REPOS/Covid-Vaccine-Hashtagged-Tweets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA763EE4-3F26-7A4A-A811-52DF43AA9568}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B3F7AE-6709-E745-850E-5CD67D0B216C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="-21200" windowWidth="24200" windowHeight="18860" activeTab="1" xr2:uid="{B8F99F90-3E18-6C41-B0E4-46BEC5C4A88C}"/>
+    <workbookView xWindow="-35940" yWindow="60" windowWidth="35280" windowHeight="14480" activeTab="1" xr2:uid="{B8F99F90-3E18-6C41-B0E4-46BEC5C4A88C}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
   <si>
     <t>SEGMENT</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Pfizer"</t>
-  </si>
-  <si>
-    <t>"johnson"</t>
   </si>
   <si>
     <t>"Death"</t>
@@ -1503,12 +1500,803 @@
   <si>
     <t>fake</t>
   </si>
+  <si>
+    <t>maskerade</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>[('click', 0.692636251449585), ('via', 0.6687740683555603), ('vaccines', 0.6151556372642517), ('designmasterteam', 0.5844323039054871), ('place', 0.5809894800186157), ('love', 0.5706258416175842), ('wo', 0.5359808206558228), ('rate', 0.49945563077926636), ('india', 0.4991263747215271), ('298', 0.49403509497642517), ('vocabulary', 0.446992963552475), ('govt', 0.43823865056037903), ('2', 0.4184320569038391), ('bangladeshs', 0.40438219904899597), ('18', 0.398616224527359)]</t>
+  </si>
+  <si>
+    <t>[('got', 0.9347037076950073),
+ ('dose', 0.9268880486488342),
+ ('received', 0.9107586741447449),
+ ('dhaka', 0.9081537127494812),
+ ('ir', 0.9043550491333008),
+ ('day', 0.9007213115692139),
+ ('far', 0.9000015258789062),
+ ('first', 0.8993967175483704),
+ ('gig', 0.8719432950019836),
+ ('vaccination', 0.8691515326499939),
+ ('get', 0.8647416234016418),
+ ('facebook', 0.8571967482566833),
+ ('astrazeneca', 0.8543335795402527),
+ ('administered', 0.8532389402389526),
+ ('bangladeshs', 0.8513839840888977)]</t>
+  </si>
+  <si>
+    <t>[('covid', 0.9392188787460327),
+ ('govt', 0.8831145763397217),
+ ('first', 0.8765546679496765),
+ ('done', 0.8612658977508545),
+ ('received', 0.8602855205535889),
+ ('us', 0.8543340563774109),
+ ('dose', 0.8407372832298279),
+ ('immunisation', 0.8374999761581421),
+ ('vaccination', 0.8358247876167297),
+ ('day', 0.8186365365982056),
+ ('india', 0.8144108057022095),
+ ('drive', 0.7959237098693848),
+ ('coronavirus', 0.7632818818092346),
+ ('wo', 0.7606204152107239),
+ ('vaccine', 0.751998245716095)]</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>covidshield</t>
+  </si>
+  <si>
+    <t>covaxin</t>
+  </si>
+  <si>
+    <t>[('wear', 0.8426764011383057), ('masks', 0.8315188884735107), ('wearing', 0.7444148659706116), ('distance', 0.7342573404312134), ('anywhere', 0.7213568091392517), ('face', 0.7143799066543579), ('sp', 0.6808247566223145), ('wer', 0.6688926815986633), ('outside', 0.6169912815093994), ('anti', 0.5878720879554749), ('ors', 0.5862520337104797), ('players', 0.5699912309646606), ('kn', 0.5660548806190491), ('picture', 0.5637067556381226), ('distant', 0.5626022815704346)]</t>
+  </si>
+  <si>
+    <t>[('chosen', 0.7404757738113403), ('four', 0.7174398899078369), ('phos', 0.6900436878204346), ('dist', 0.6898783445358276), ('districts', 0.6894792914390564), ('jan', 0.6809608936309814), ('29', 0.6756405830383301), ('andhra', 0.675355076789856), ('gujarat', 0.6621471047401428), ('exercise', 0.6593629121780396), ('conducted', 0.652980625629425), ('dry', 0.6513985395431519), ('27', 0.650364875793457), ('begins', 0.6487175226211548), ('cough', 0.6428170204162598)]</t>
+  </si>
+  <si>
+    <t>DOES NOT APPEAR</t>
+  </si>
+  <si>
+    <t>[('jumping', 0.7796080112457275),
+ ('decide', 0.775917112827301),
+ ('mates', 0.7647047638893127),
+ ('itll', 0.7449614405632019),
+ ('dutch', 0.7426376342773438),
+ ('blindly', 0.7401571869850159),
+ ('believing', 0.7389587163925171),
+ ('communication', 0.7374935150146484),
+ ('alarm', 0.7302284240722656),
+ ('cuz', 0.7292222380638123),
+ ('burns', 0.7282103896141052),
+ ('happy', 0.724186360836029),
+ ('absurd', 0.7223884463310242),
+ ('resistance', 0.7165073156356812),
+ ('trash', 0.7149720788002014)]</t>
+  </si>
+  <si>
+    <t>alone</t>
+  </si>
+  <si>
+    <t>[('warned', 0.7034214735031128),
+ ('cbc', 0.5882685780525208),
+ ('abcnews', 0.5641353726387024),
+ ('claiming', 0.5639282464981079),
+ ('tragedy', 0.5601370334625244),
+ ('approved', 0.5559642314910889),
+ ('act', 0.5459257960319519),
+ ('viral', 0.5422924160957336),
+ ('hopes', 0.5365585684776306),
+ ('regarding', 0.5334580540657043),
+ ('chinas', 0.5331100225448608),
+ ('scams', 0.5299438238143921),
+ ('cnn', 0.5278530120849609),
+ ('clueless', 0.5277230143547058),
+ ('breaking', 0.5256149172782898)]</t>
+  </si>
+  <si>
+    <t>[('administration', 0.7205667495727539),
+ ('vowed', 0.7100118398666382),
+ ('donald', 0.6987853646278381),
+ ('president', 0.6931860446929932),
+ ('potus', 0.6910884380340576),
+ ('election', 0.6872004866600037),
+ ('virtue', 0.6803492903709412),
+ ('trumps', 0.6738608479499817),
+ ('wall', 0.6736698746681213),
+ ('embarrassing', 0.6720532774925232),
+ ('coffee', 0.6680639982223511),
+ ('bugle', 0.6643089056015015),
+ ('liar', 0.6607852578163147),
+ ('undermining', 0.6582063436508179),
+ ('idiot', 0.6581769585609436)]</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>[('clinically', 0.9154976010322571),
+ ('vulnerab', 0.9065098166465759),
+ ('classed', 0.9029767513275146),
+ ('cev', 0.8762595057487488),
+ ('extremely', 0.7885416746139526),
+ ('older', 0.7826031446456909),
+ ('category', 0.7796782851219177),
+ ('relieved', 0.7777295112609863),
+ ('vulnerable', 0.7738850712776184),
+ ('85', 0.7719694375991821),
+ ('offered', 0.7702235579490662),
+ ('5064', 0.7675298452377319),
+ ('mum', 0.7618442177772522),
+ ('eagerly', 0.7569969296455383),
+ ('70s', 0.7567648887634277)]</t>
+  </si>
+  <si>
+    <t>[('moderna', 0.8654927015304565),
+ ('modernavaccine', 0.7822985053062439),
+ ('pfizervaccine', 0.7821924090385437),
+ ('biontech', 0.7570797204971313),
+ ('covidvac', 0.7227279543876648),
+ ('thisisourshot', 0.7094532251358032),
+ ('booster', 0.6736841201782227),
+ ('mrna', 0.6720727682113647),
+ ('shot', 0.6718746423721313),
+ ('arrives', 0.6539338827133179),
+ ('pfizerbiontech', 0.6490250825881958),
+ ('2nd', 0.6374198198318481),
+ ('post', 0.636385440826416),
+ ('protection', 0.6249983310699463),
+ ('apart', 0.6237159967422485)]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[('shameful', 0.8362730145454407),
+ ('wh', 0.8323849439620972),
+ ('decide', 0.8131546378135681),
+ ('communication', 0.8116715550422668),
+ ('dutch', 0.8071231245994568),
+ ('podcast', 0.8055801391601562),
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>'hugging', 0.8034594655036926),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('trash', 0.7973645925521851),
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>('insurrection', 0.7966405153274536),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('alarm', 0.7959007024765015),
+ ('willing', 0.7938029170036316),
+ ('srm', 0.78700190782547),
+ ('lie', 0.7869057655334473),
+ ('honored', 0.7860171794891357),
+ ('core', 0.7852157950401306)]</t>
+    </r>
+  </si>
+  <si>
+    <t>johnson</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">[('doesnt', 0.6676912903785706),
+ ('socialise', 0.6352782845497131),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ('youll', 0.6184148192405701),
+ ('lets', 0.6178240180015564),
+ ('gives', 0.6109923124313354),
+ ('worry', 0.6079967021942139),
+ ('govt', 0.5964556932449341),
+ ('damn', 0.5881447196006775),
+ ('word', 0.5749395489692688),
+ ('light', 0.5604772567749023),
+ ('ahead', 0.5552389621734619),
+ ('might', 0.5547767281532288),
+ ('alarm', 0.5542288422584534),
+ ('excuse', 0.5485650300979614),
+ ('build', 0.5469804406166077)]</t>
+    </r>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[('chart', 0.8034113049507141), ('match', 0.782863974571228), ('idiotic', 0.7606983780860901), ('alcohol', 0.7320113182067871), ('saline', </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.7312314510345459), ('respect',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>0.7286377549171448), ('importance',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.7266466021537781), ('eligibility', 0.7227128148078918), ('pick', 0.7217230200767517), ('decision', 0.7203246355056763), ('remove', 0.71826171875), ('describe', 0.710116982460022), ('respond', 0.7095282077789307), ('metrinote', 0.7083925604820251), ('ashamed', 0.7082831263542175)]</t>
+    </r>
+  </si>
+  <si>
+    <t>[('ending', 0.7357979416847229),
+ ('sck', 0.7320681810379028),
+ ('tax', 0.7245522737503052),
+ ('patent', 0.7241458296775818),
+ ('nope', 0.7086862325668335),
+ ('different', 0.7067683935165405),
+ ('controls', 0.7067420482635498),
+ ('genocide', 0.690290629863739),
+ ('sckmarket', 0.6895613074302673),
+ ('reckless', 0.6882303953170776),
+ ('thin', 0.6777146458625793),
+ ('plain', 0.6722812056541443),
+ ('fell', 0.6717578172683716),
+ ('multiple', 0.6701161861419678),
+ ('spin', 0.6680546402931213)]</t>
+  </si>
+  <si>
+    <t>nano</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>('controls',</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.7991753220558167), ('faint', 0.797809898853302), ('admit', 0.784226655960083), ('broke', 0.779869556427002), ('lnp', 0.7644789218902588), ('hunt', 0.7563585042953491), ('embarrassing', 0.7559173107147217), ('coming', 0.7500826716423035), ('myth', 0.7462352514266968), ('wall', 0.7435693144798279), ('kind', 0.7417040467262268), ('envy', 0.7398487329483032), ('core', 0.7389440536499023), ('whining', 0.7350700497627258), ('except', 0.7347462177276611)]</t>
+    </r>
+  </si>
+  <si>
+    <t>[('announce', 0.8385698199272156),
+ ('beating', 0.8352705240249634),
+ ('resign', 0.8313485383987427),
+ ('stake', 0.8294461369514465),
+ ('surgeon', 0.8136268258094788),
+ ('actions', 0.808844268321991),
+ ('remaining', 0.8003150224685669),
+ ('add', 0.7985658645629883),
+ ('tape', 0.7897812128067017),
+ ('commit', 0.787874698638916),
+ ('clear', 0.778556764125824),
+ ('refuses', 0.7782660722732544),
+ ('slen', 0.7781275510787964),
+ ('threat', 0.7778986096382141),
+ ('pr', 0.7762773633003235)]</t>
+  </si>
+  <si>
+    <t>freedom</t>
+  </si>
+  <si>
+    <r>
+      <t>[('sch', 0.6354455351829529),
+ ('needy', 0.6174919009208679),
+ ('</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>troubling'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 0.6117149591445923),
+ ('pple', 0.6101886034011841),
+ ('listened', 0.6066409945487976),
+ ('pupils', 0.604669451713562),
+ ('exclude', 0.6031008362770081),
+ ('schedu', 0.5979927778244019),
+ ('oth', 0.5888636708259583),
+ ('nyers', 0.5888010859489441),
+ ('internet', 0.5863929390907288),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ('karens'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.5858563780784607),
+ ('struggle', 0.585382342338562),
+ ('protec', 0.5823727250099182),
+ ('alsmnd', 0.5811983346939087)]</t>
+    </r>
+  </si>
+  <si>
+    <t>[('dialogue', 0.594066858291626),
+ ('dislike', 0.5885486602783203),
+ ('slen', 0.5775142908096313),
+ ('cast', 0.5695891976356506),
+ ('obtain', 0.5648554563522339),
+ ('connect', 0.5575854182243347),
+ ('peoplesvaccine', 0.5566272139549255),
+ ('choosing', 0.5534698367118835),
+ ('commit', 0.5527947545051575),
+ ('capitalist', 0.5493367314338684),
+ ('vaccinepassports', 0.5468333959579468),
+ ('appropriately', 0.5418329834938049),
+ ('needy', 0.5401600003242493),
+ ('vaccineequity', 0.5395218729972839),
+ ('colors', 0.5379695296287537)]</t>
+  </si>
+  <si>
+    <t>[('tier4', 0.6574022769927979),
+ ('lockdownuk', 0.6487268805503845),
+ ('covid19uk', 0.6394939422607422),
+ ('tier5', 0.5955468416213989),
+ ('15milliondreams', 0.5455343127250671),
+ ('coronavirusuk', 0.5234923362731934),
+ ('lockdowns', 0.5078347325325012),
+ ('lockdown3', 0.4888807237148285),
+ ('earthquake', 0.4868636727333069),
+ ('covididiots', 0.4770187735557556),
+ ('oath', 0.45376256108283997),
+ ('tw', 0.4521142542362213),
+ ('wednesdaythought', 0.452090322971344),
+ ('fightback', 0.4428277015686035),
+ ('level5', 0.4366116225719452)]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[('thrilled', 0.6853243708610535),
+ ('nervous', 0.6784800887107849),
+ ('happy', 0.6688200831413269),
+ ('relieved', 0.6520928144454956),
+ ('happier', 0.6411599516868591),
+ ('sked', 0.635233998298645),
+ ('glad', 0.6244743466377258),
+ ('thankful', 0.6147783994674683),
+ ('imagined', 0.6142889857292175),
+ ('delighted', 0.6008561849594116),
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">('grateful', 0.6006448268890381),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ('blessed', 0.5947110056877136),
+ ('moon', 0.5923746228218079),
+ ('momma', 0.5769785642623901),
+ ('honored', 0.5728294253349304)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[('lif', 0.6891525387763977),
+ ('shorter', 0.6840678453445435),
+ ('ladies', 0.6684682965278625),
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">('someday', 0.6678468585014343),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ('grdaughter', 0.6503180861473083),
+ ('throw', 0.6389614939689636),
+ ('sorry', 0.6336303949356079),
+ ('lov', 0.6335486769676208),
+ ('sing', 0.6276987791061401),
+ ('somehow', 0.625290036201477),
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>('hugs'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 0.6225654482841492),
+ ('drivers', 0.6194025874137878),
+ ('classroom', 0.6184014678001404),
+ ('stuck', 0.6091361045837402),
+ ('happily', 0.6002174019813538)]</t>
+    </r>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>[('excited', 0.6688201427459717),
+ ('relieved', 0.662482738494873),
+ ('thrilled', 0.6481286287307739),
+ ('moon', 0.6168369650840759),
+ ('glad', 0.6120731830596924),
+ ('thankful', 0.5983783006668091),
+ ('grateful', 0.5924464464187622),
+ ('hubby', 0.5890628695487976),
+ ('pleased', 0.5875700116157532),
+ ('momma', 0.5848520398139954),
+ ('sked', 0.5839620232582092),
+ ('nervous', 0.5798296928405762),
+ ('grat', 0.5767670273780823),
+ ('blessed', 0.5759959816932678),
+ ('crying', 0.5719818472862244)]</t>
+  </si>
+  <si>
+    <t>[('1st', 0.7928212285041809),
+ ('2nd', 0.6630350947380066),
+ ('second', 0.5980405807495117),
+ ('stepdad', 0.537887454032898),
+ ('stepmom', 0.5340468287467957),
+ ('nanny', 0.5328379273414612),
+ ('canceled', 0.5235000252723694),
+ ('csun', 0.519570529460907),
+ ('woohoo', 0.4960741400718689),
+ ('woot', 0.4826916754245758),
+ ('inlaws', 0.48006561398506165),
+ ('900000', 0.46735769510269165),
+ ('mums', 0.46705371141433716),
+ ('hooray', 0.46403706073760986),
+ ('firstdose', 0.45952433347702026)]</t>
+  </si>
+  <si>
+    <t>hugging</t>
+  </si>
+  <si>
+    <t>[('speaking', 0.8901846408843994),
+ ('shout', 0.8711374998092651),
+ ('curve', 0.8709050416946411),
+ ('gods', 0.8701009154319763),
+ ('agree', 0.8695850968360901),
+ ('best', 0.8673346638679504),
+ ('loves', 0.8668826222419739),
+ ('trash', 0.8641505241394043),
+ ('spr', 0.858001708984375),
+ ('energy', 0.8560997843742371),
+ ('wh', 0.8552451133728027),
+ ('disgusted', 0.8552220463752747),
+ ('congratulations', 0.853925883769989),
+ ('mix', 0.8445941209793091),
+ ('ability', 0.8415828943252563)]</t>
+  </si>
+  <si>
+    <t>[('pemic', 0.660871148109436),
+ ('devastating', 0.6396228671073914),
+ ('covid„éº19', 0.6184283494949341),
+ ('deadly', 0.6156755685806274),
+ ('current', 0.6047199964523315),
+ ('mutates', 0.6012411117553711),
+ ('economy', 0.600027322769165),
+ ('ways', 0.5939151644706726),
+ ('b117', 0.5935468077659607),
+ ('expense', 0.5802507996559143),
+ ('prepare', 0.573549747467041),
+ ('coronavirus', 0.5704572796821594),
+ ('fans', 0.5657554864883423),
+ ('mutations', 0.5623011589050293),
+ ('attitude', 0.5608961582183838)]</t>
+  </si>
+  <si>
+    <t>[('2nd', 0.8217517733573914),
+ ('second', 0.821230947971344),
+ ('1st', 0.7453717589378357),
+ ('over80s', 0.710468590259552),
+ ('scheduled', 0.6931995153427124),
+ ('hubby', 0.6721649169921875),
+ ('booster', 0.6518630385398865),
+ ('mine', 0.6424697637557983),
+ ('pfizervaccine', 0.637586772441864),
+ ('grma', 0.6300742626190186),
+ ('definitely', 0.6281560659408569),
+ ('husb', 0.6280924677848816),
+ ('sister', 0.6271135807037354),
+ ('moderna', 0.6189447045326233),
+ ('mums', 0.6168476343154907)]</t>
+  </si>
+  <si>
+    <t>vaccine</t>
+  </si>
+  <si>
+    <t>[('covidvaccine', 0.528648316860199), ('jab', 0.5275253057479858), ('vac', 0.4720120131969452), ('vaccination', 0.46655845642089844), ('vaccines', 0.46611425280570984), ('vacc', 0.4397816061973572), ('911', 0.4232693016529083), ('rapid', 0.4134814739227295), ('arizona', 0.3888431787490845), ('cured', 0.380331814289093), ('vaccinations', 0.3771314024925232), ('nationals', 0.3694520890712738), ('rational', 0.36628982424736023), ('convention', 0.35100334882736206), ('1st', 0.3474847376346588)]</t>
+  </si>
+  <si>
+    <t>[('vacci', 0.4973578453063965),
+ ('vax', 0.4540560841560364),
+ ('covidvaccine', 0.4476538598537445),
+ ('vacc', 0.4305771291255951),
+ ('vaccines', 0.4266405701637268),
+ ('jab', 0.42185619473457336),
+ ('covidvaccines', 0.4124646484851837),
+ ('vaccin', 0.40739062428474426),
+ ('trinity', 0.3903389275074005),
+ ('seco', 0.3813687264919281),
+ ('yankee', 0.3792005479335785),
+ ('vaccinati', 0.35847729444503784),
+ ('knocked', 0.3554323613643646),
+ ('covid19vaccine', 0.3525679409503937),
+ ('dcs', 0.35086727142333984)]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[([('isolating', 0.6664457321166992),
+ ('parent', 0.6526998281478882),
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> ('asshole', 0.6415901780128479),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ ('71', 0.6389553546905518),
+ ('vet', 0.6300119757652283),
+ ('hypertension', 0.6290054321289062),
+ ('78', 0.6144156455993652),
+ ('74', 0.6121711730957031),
+ ('olds', 0.59531170129776),
+ ('asthmatic', 0.5907805562019348),
+ ('84', 0.5882925987243652),
+ ('80yr', 0.587142825126648),
+ ('cev', 0.5827707648277283),
+ ('nan', 0.581272304058075),
+ ('83', 0.5789349675178528)]</t>
+    </r>
+  </si>
+  <si>
+    <t>[('mad', 0.7030069231987),
+ ('lads', 0.6942667961120605),
+ ('thinking', 0.6835430860519409),
+ ('wine', 0.6751769185066223),
+ ('dress', 0.675035834312439),
+ ('coffee', 0.655864953994751),
+ ('laughter', 0.6487313508987427),
+ ('comfort', 0.6470110416412354),
+ ('fam', 0.6441064476966858),
+ ('distanced', 0.6389553546905518),
+ ('romantic', 0.6326737403869629),
+ ('arguments', 0.6321858763694763),
+ ('needles', 0.6225098371505737),
+ ('lov', 0.6150972843170166),
+ ('ball', 0.6120777130126953)]</t>
+  </si>
+  <si>
+    <t>[('tru', 0.6475527286529541),
+ ('adjust', 0.6443318724632263),
+ ('ignore', 0.6415287256240845),
+ ('forced', 0.6349615454673767),
+ ('foot', 0.626215398311615),
+ ('dare', 0.6257576942443848),
+ ('pays', 0.624439001083374),
+ ('anc', 0.6243224143981934),
+ ('decided', 0.6238763928413391),
+ ('influence', 0.6229193806648254),
+ ('worries', 0.6190930008888245),
+ ('fooled', 0.6182978749275208),
+ ('peasants', 0.6141682863235474),
+ ('defend', 0.6138417720794678),
+ ('liar', 0.6093155741691589)]</t>
+  </si>
+  <si>
+    <t>[('shameful', 0.8362730145454407),
+ ('wh', 0.8323849439620972),
+ ('decide', 0.8131546378135681),
+ ('communication', 0.8116715550422668),
+ ('dutch', 0.8071231245994568),
+ ('podcast', 0.8055801391601562),
+ ('hugging', 0.8034594655036926),
+ ('trash', 0.7973645925521851),
+ ('insurrection', 0.7966405153274536),
+ ('alarm', 0.7959007024765015),
+ ('willing', 0.7938029170036316),
+ ('srm', 0.78700190782547),
+ ('lie', 0.7869057655334473),
+ ('honored', 0.7860171794891357),
+ ('core', 0.7852157950401306)]</t>
+  </si>
+  <si>
+    <t>[('hypertension', 0.6034854054450989),
+ ('asshole', 0.5705682039260864),
+ ('child', 0.5561245679855347),
+ ('vet', 0.5543507933616638),
+ ('isolating', 0.551108717918396),
+ ('shame', 0.5462437272071838),
+ ('lig', 0.543023943901062),
+ ('idaho', 0.5418983101844788),
+ ('fool', 0.5389038920402527),
+ ('68', 0.5383875966072083),
+ ('ur', 0.5218662619590759),
+ ('leaving', 0.5215570330619812),
+ ('masked', 0.5093450546264648),
+ ('neighbor', 0.5058081746101379),
+ ('pneumonia', 0.5011651515960693)]</t>
+  </si>
+  <si>
+    <t>[('internationalstudents', 0.6830613613128662),
+ ('predicted', 0.6234292984008789),
+ ('letuscometoaus', 0.6104339361190796),
+ ('mu', 0.6052258610725403),
+ ('liftthetravelban', 0.600340723991394),
+ ('accurately', 0.5930824279785156),
+ ('icus', 0.5912634134292603),
+ ('eggs', 0.5801610946655273),
+ ('countr', 0.5741767883300781),
+ ('350', 0.5714073181152344),
+ ('medication', 0.5700600743293762),
+ ('wit', 0.5536941289901733),
+ ('palsy', 0.5530762076377869),
+ ('ad', 0.54780513048172),
+ ('mortality', 0.544853925704956)]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1592,8 +2380,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1636,8 +2456,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1655,8 +2487,81 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1665,15 +2570,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1701,11 +2642,132 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1747,30 +2809,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1851,39 +2889,40 @@
     <tableColumn id="1" xr3:uid="{2B4C885E-72A4-0848-9353-42A395F11CF3}" name="Classifier"/>
     <tableColumn id="2" xr3:uid="{E8BB2751-FE96-DA4A-8595-879759F8565D}" name="SEGMENT"/>
     <tableColumn id="3" xr3:uid="{F18F21AB-7081-DF4F-9F54-471F32E66655}" name="DATA"/>
-    <tableColumn id="4" xr3:uid="{4C43BADA-D42E-8C4A-BE12-D1E1F6252517}" name="Synonym" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{C78E9FDB-163E-C148-99DA-DAA35D1B68E8}" name="Clusters" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{B80318E6-6D8C-0F4B-B570-24057F6B43D9}" name="Word Math" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{7E89AAA4-6551-A848-9AA5-1FFAD093CC5D}" name="Vector Size" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{4DDA75F1-4C24-8B4F-8D5A-86947A598D98}" name="Interations" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{EE596B20-A6A1-E543-9F10-10DB777073CF}" name="K" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{543EA143-457B-1744-9035-CD50F7B3CC1D}" name="CoSine" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{4C43BADA-D42E-8C4A-BE12-D1E1F6252517}" name="Synonym" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{C78E9FDB-163E-C148-99DA-DAA35D1B68E8}" name="Clusters" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{B80318E6-6D8C-0F4B-B570-24057F6B43D9}" name="Word Math" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{7E89AAA4-6551-A848-9AA5-1FFAD093CC5D}" name="Vector Size" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{4DDA75F1-4C24-8B4F-8D5A-86947A598D98}" name="Interations" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{EE596B20-A6A1-E543-9F10-10DB777073CF}" name="K" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{543EA143-457B-1744-9035-CD50F7B3CC1D}" name="CoSine" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C057E0A7-5E91-914C-86E7-FFA9E53551E5}" name="Table2" displayName="Table2" ref="A3:N50" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A3:N50" xr:uid="{26E3B999-ED4C-A543-917C-BD15A6BD357A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:N50">
-    <sortCondition ref="B3:B50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C057E0A7-5E91-914C-86E7-FFA9E53551E5}" name="Table2" displayName="Table2" ref="A3:O59" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A3:O59" xr:uid="{26E3B999-ED4C-A543-917C-BD15A6BD357A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O59">
+    <sortCondition ref="A3:A59"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="12" xr3:uid="{DF716BDD-0A77-5D41-8099-D171C464C4C2}" name="group id" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{B376C3D7-8574-F245-B446-5495696E500C}" name="keyword" dataDxfId="2"/>
+  <tableColumns count="15">
+    <tableColumn id="12" xr3:uid="{DF716BDD-0A77-5D41-8099-D171C464C4C2}" name="group id" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{B376C3D7-8574-F245-B446-5495696E500C}" name="keyword" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3A452ED8-DDDA-D64B-B2FA-C589E878BE70}" name="Global-200/03/20"/>
     <tableColumn id="14" xr3:uid="{685B12BA-2573-8F47-9281-B1C782B6561E}" name="Global-POS"/>
     <tableColumn id="13" xr3:uid="{0F48A971-D35A-F24F-825C-9A749EEFE6FB}" name="Global-NEG"/>
-    <tableColumn id="3" xr3:uid="{49154867-2BE5-604D-9EA7-3A98AA18045A}" name="US"/>
+    <tableColumn id="3" xr3:uid="{49154867-2BE5-604D-9EA7-3A98AA18045A}" name="US" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{EE473E8B-3EF0-4E43-A0E4-F686B523C2AB}" name="UK"/>
-    <tableColumn id="5" xr3:uid="{0BD98204-E682-D448-9F96-9828AAF345FB}" name="India"/>
+    <tableColumn id="15" xr3:uid="{11E5E546-1BF9-4D4C-97A5-F6E0C8D4252B}" name="Bangladesh" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{0BD98204-E682-D448-9F96-9828AAF345FB}" name="India" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{71B12296-185F-AC47-BD89-61D10C445AEF}" name="Nov 5 (11/3-11/7)"/>
     <tableColumn id="7" xr3:uid="{4BBB00D6-780D-C94A-8392-95BC2EAB2F32}" name="Jan 6 (1/4 - 1/8)"/>
-    <tableColumn id="8" xr3:uid="{2EA52044-351B-AE46-851D-3073E583F312}" name="AstraZeneca"/>
+    <tableColumn id="8" xr3:uid="{2EA52044-351B-AE46-851D-3073E583F312}" name="AstraZeneca" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{9FE2E1AA-C4EA-AA4C-A8E3-065480E3D7EF}" name="Moderna"/>
     <tableColumn id="10" xr3:uid="{881DB5C6-6C99-3E46-9C37-4A68CA9E11B1}" name="Pfizer"/>
-    <tableColumn id="11" xr3:uid="{9823D0A3-B40D-5B4B-8176-2DE4AA95D2E6}" name="Johnson&amp;Johnson "/>
+    <tableColumn id="11" xr3:uid="{9823D0A3-B40D-5B4B-8176-2DE4AA95D2E6}" name="Johnson&amp;Johnson " dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2189,7 +3228,7 @@
   <dimension ref="A4:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2221,21 +3260,21 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -2243,45 +3282,45 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14">
         <v>300</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>3</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>7</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>0.22189984396204601</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16">
         <v>200</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>3</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>15</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <v>0.22453600000000001</v>
       </c>
     </row>
@@ -2292,48 +3331,48 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14">
         <v>300</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>3</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>6</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <v>0.2437</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16">
         <v>200</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>3</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>9</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>0.26939999999999997</v>
       </c>
     </row>
@@ -2344,22 +3383,22 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
         <v>300</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>3</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <v>6</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <v>0.2828</v>
       </c>
     </row>
@@ -2370,126 +3409,126 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
         <v>300</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <v>3</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <v>8</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <v>0.2838</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
         <v>200</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>3</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <v>8</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <v>0.28420000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16">
         <v>300</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>3</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>7</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <v>0.28560000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17">
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16">
         <v>200</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>3</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>8</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <v>0.29530000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
         <v>200</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <v>3</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>6</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="16">
         <v>0.3039</v>
       </c>
     </row>
@@ -2503,45 +3542,45 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14">
         <v>300</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <v>3</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="14">
         <v>10</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="14">
         <v>0.312</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16">
         <v>200</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>3</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>12</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="16">
         <v>0.31519999999999998</v>
       </c>
     </row>
@@ -2555,285 +3594,285 @@
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14">
         <v>300</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>3</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="14">
         <v>6</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="14">
         <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16">
         <v>200</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <v>3</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="16">
         <v>5</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="16">
         <v>0.50560000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16">
+        <v>200</v>
+      </c>
+      <c r="H19" s="16">
+        <v>3</v>
+      </c>
+      <c r="I19" s="16">
+        <v>7</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0.27110000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16">
         <v>200</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H20" s="16">
         <v>3</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I20" s="16">
+        <v>12</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0.24940000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14">
+        <v>200</v>
+      </c>
+      <c r="H21" s="14">
+        <v>3</v>
+      </c>
+      <c r="I21" s="14">
+        <v>15</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16">
+        <v>200</v>
+      </c>
+      <c r="H22" s="16">
+        <v>3</v>
+      </c>
+      <c r="I22" s="16">
+        <v>6</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0.22759299999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16">
+        <v>200</v>
+      </c>
+      <c r="H23" s="16">
+        <v>3</v>
+      </c>
+      <c r="I23" s="16">
         <v>7</v>
       </c>
-      <c r="J19" s="17">
-        <v>0.27110000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="J23" s="16">
+        <v>0.24835499999999999</v>
+      </c>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="17" t="s">
+      <c r="B24" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17">
-        <v>200</v>
-      </c>
-      <c r="H20" s="17">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17">
+        <v>300</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17">
+        <v>300</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16">
+        <v>300</v>
+      </c>
+      <c r="H26" s="16">
         <v>3</v>
       </c>
-      <c r="I20" s="17">
-        <v>12</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0.24940000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="15" t="s">
+      <c r="I26" s="16">
+        <v>13</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15">
-        <v>200</v>
-      </c>
-      <c r="H21" s="15">
-        <v>3</v>
-      </c>
-      <c r="I21" s="15">
-        <v>15</v>
-      </c>
-      <c r="J21" s="15">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="17" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17">
+        <v>300</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17">
-        <v>200</v>
-      </c>
-      <c r="H22" s="17">
-        <v>3</v>
-      </c>
-      <c r="I22" s="17">
-        <v>6</v>
-      </c>
-      <c r="J22" s="17">
-        <v>0.22759299999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17">
-        <v>200</v>
-      </c>
-      <c r="H23" s="17">
-        <v>3</v>
-      </c>
-      <c r="I23" s="17">
-        <v>7</v>
-      </c>
-      <c r="J23" s="17">
-        <v>0.24835499999999999</v>
-      </c>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17">
         <v>300</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18">
-        <v>300</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17">
-        <v>300</v>
-      </c>
-      <c r="H26" s="17">
-        <v>3</v>
-      </c>
-      <c r="I26" s="17">
-        <v>13</v>
-      </c>
-      <c r="J26" s="17">
-        <v>0.24099999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18">
-        <v>300</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18">
-        <v>300</v>
-      </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2846,479 +3885,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CF2B4D-CE0C-4848-94A2-84D4D776F252}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.83203125" customWidth="1"/>
     <col min="2" max="2" width="38.5" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="23"/>
+    <col min="7" max="7" width="10.83203125" style="24"/>
+    <col min="8" max="8" width="26.6640625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="24" customWidth="1"/>
+    <col min="14" max="14" width="10" style="24" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="22"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="26" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="H8" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="E12" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="5" t="s">
+    <row r="16" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="32"/>
+    </row>
+    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="H21" s="32"/>
+    </row>
+    <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="C28" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="44"/>
+    </row>
+    <row r="30" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+    </row>
+    <row r="40" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="33"/>
+      <c r="B44" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="C51" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
+      <c r="E54" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12" t="s">
+      <c r="C55" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>1</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="19" t="s">
+    <row r="57" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="14"/>
-    </row>
-    <row r="47" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="14"/>
-    </row>
-    <row r="48" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="14"/>
-    </row>
-    <row r="49" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="14"/>
-    </row>
-    <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="14"/>
-    </row>
-    <row r="51" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
